--- a/output/utskrift_2020-06-14/A/Lätt klass individuell skritt/1Sixten Antti_A_klass15_Grund_Calouha_Su.xlsx
+++ b/output/utskrift_2020-06-14/A/Lätt klass individuell skritt/1Sixten Antti_A_klass15_Grund_Calouha_Su.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <x:si>
     <x:t>Information</x:t>
   </x:si>
@@ -647,6 +647,9 @@
   </x:si>
   <x:si>
     <x:t>Arm nr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Svart 12</x:t>
   </x:si>
   <x:si>
     <x:t>SE</x:t>
@@ -3231,7 +3234,7 @@
     <x:row r="1" spans="1:12" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H2" s="21" t="s">
         <x:v>44</x:v>
@@ -3425,7 +3428,7 @@
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="213" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B17" s="222" t="s">
         <x:v>86</x:v>
@@ -3530,7 +3533,7 @@
     </x:row>
     <x:row r="23" spans="1:12" customFormat="1" ht="20.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="A23" s="50" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B23" s="285" t="n">
         <x:v>0</x:v>
@@ -3554,10 +3557,10 @@
     </x:row>
     <x:row r="24" spans="1:12" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="E24" s="57" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G24" s="121">
         <x:f>G23/5</x:f>
@@ -3635,7 +3638,7 @@
     <x:row r="31" spans="1:12" x14ac:dyDescent="0.3"/>
     <x:row r="32" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A32" s="243" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B32" s="243" t="s"/>
       <x:c r="C32" s="243" t="s"/>
@@ -3656,7 +3659,7 @@
     </x:row>
     <x:row r="33" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A33" s="243" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B33" s="243" t="s"/>
       <x:c r="C33" s="243" t="s"/>
@@ -7340,7 +7343,9 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="K7" s="86" t="s"/>
-      <x:c r="L7" s="85" t="s"/>
+      <x:c r="L7" s="85" t="s">
+        <x:v>136</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:13" customFormat="1" ht="17.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
@@ -7348,7 +7353,7 @@
       </x:c>
       <x:c r="B8" s="2" t="s"/>
       <x:c r="C8" s="40" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s"/>
       <x:c r="E8" s="40" t="s"/>
@@ -7360,7 +7365,7 @@
       </x:c>
       <x:c r="B9" s="6" t="s"/>
       <x:c r="C9" s="158" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D9" s="158" t="s"/>
       <x:c r="E9" s="158" t="s"/>
@@ -7372,7 +7377,7 @@
       </x:c>
       <x:c r="B10" s="6" t="s"/>
       <x:c r="C10" s="158" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D10" s="158" t="s"/>
       <x:c r="E10" s="158" t="s"/>
@@ -7395,7 +7400,7 @@
       <x:c r="J13" s="6" t="s"/>
       <x:c r="K13" s="82" t="s"/>
       <x:c r="L13" s="12" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7432,7 +7437,7 @@
     </x:row>
     <x:row r="16" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="107" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B16" s="113" t="s"/>
       <x:c r="C16" s="113" t="s"/>
@@ -7480,7 +7485,7 @@
     </x:row>
     <x:row r="19" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A19" s="110" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B19" s="111" t="s"/>
       <x:c r="C19" s="111" t="s"/>
@@ -7502,7 +7507,7 @@
       <x:c r="I21" s="17" t="s"/>
       <x:c r="J21" s="19" t="s"/>
       <x:c r="K21" s="17" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="L21" s="12">
         <x:f>SUM(L14:L19)</x:f>
@@ -7576,7 +7581,7 @@
       <x:c r="A26" s="180" t="s"/>
       <x:c r="B26" s="182" t="s"/>
       <x:c r="C26" s="182" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D26" s="182" t="s"/>
       <x:c r="E26" s="194" t="s">
@@ -7592,7 +7597,7 @@
     </x:row>
     <x:row r="27" spans="1:13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A27" s="178" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B27" s="203" t="s">
         <x:v>86</x:v>
@@ -7684,7 +7689,7 @@
       <x:c r="G32" s="1" t="s"/>
       <x:c r="I32" s="1" t="s"/>
       <x:c r="J32" s="57" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="K32" s="58" t="s"/>
       <x:c r="L32" s="51">
@@ -7694,7 +7699,7 @@
     <x:row r="33" spans="1:13" s="68" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="I33" s="71" t="s"/>
       <x:c r="J33" s="21" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="K33" s="69" t="s"/>
       <x:c r="L33" s="99">
@@ -7715,7 +7720,7 @@
       </x:c>
       <x:c r="B35" s="41" t="s"/>
       <x:c r="C35" s="41" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D35" s="41" t="s"/>
       <x:c r="E35" s="41" t="s"/>
@@ -7827,7 +7832,7 @@
     <x:row r="1" spans="1:12" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H2" s="21" t="s">
         <x:v>44</x:v>
@@ -8022,7 +8027,7 @@
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="213" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B17" s="222" t="s">
         <x:v>86</x:v>
@@ -8129,7 +8134,7 @@
     </x:row>
     <x:row r="23" spans="1:12" customFormat="1" ht="20.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="A23" s="50" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B23" s="285" t="n">
         <x:v>0</x:v>
@@ -8153,10 +8158,10 @@
     </x:row>
     <x:row r="24" spans="1:12" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="E24" s="57" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G24" s="121">
         <x:f>G23/5</x:f>
@@ -8234,7 +8239,7 @@
     <x:row r="31" spans="1:12" x14ac:dyDescent="0.3"/>
     <x:row r="32" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A32" s="243" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B32" s="243" t="s"/>
       <x:c r="C32" s="243" t="s"/>
@@ -8255,7 +8260,7 @@
     </x:row>
     <x:row r="33" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A33" s="243" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B33" s="243" t="s"/>
       <x:c r="C33" s="243" t="s"/>
@@ -8434,7 +8439,7 @@
     <x:row r="1" spans="1:13" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:13" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H2" s="3" t="s"/>
       <x:c r="I2" s="7" t="s">
@@ -8563,7 +8568,7 @@
       <x:c r="J13" s="6" t="s"/>
       <x:c r="K13" s="82" t="s"/>
       <x:c r="L13" s="12" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8600,7 +8605,7 @@
     </x:row>
     <x:row r="16" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="107" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B16" s="113" t="s"/>
       <x:c r="C16" s="113" t="s"/>
@@ -8648,7 +8653,7 @@
     </x:row>
     <x:row r="19" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A19" s="110" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B19" s="111" t="s"/>
       <x:c r="C19" s="111" t="s"/>
@@ -8670,7 +8675,7 @@
       <x:c r="I21" s="17" t="s"/>
       <x:c r="J21" s="19" t="s"/>
       <x:c r="K21" s="17" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="L21" s="12">
         <x:f>SUM(L14:L19)</x:f>
@@ -8744,7 +8749,7 @@
       <x:c r="A26" s="180" t="s"/>
       <x:c r="B26" s="182" t="s"/>
       <x:c r="C26" s="182" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D26" s="182" t="s"/>
       <x:c r="E26" s="194" t="s">
@@ -8760,7 +8765,7 @@
     </x:row>
     <x:row r="27" spans="1:13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A27" s="178" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B27" s="203" t="s">
         <x:v>86</x:v>
@@ -8852,7 +8857,7 @@
       <x:c r="G32" s="1" t="s"/>
       <x:c r="I32" s="1" t="s"/>
       <x:c r="J32" s="57" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="K32" s="58" t="s"/>
       <x:c r="L32" s="51">
@@ -8862,7 +8867,7 @@
     <x:row r="33" spans="1:13" s="68" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="I33" s="71" t="s"/>
       <x:c r="J33" s="21" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="K33" s="69" t="s"/>
       <x:c r="L33" s="99">
